--- a/branches/merging/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/branches/merging/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1260,7 +1260,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://spor.ema.europa.eu/rmswi/220000000000"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/lists/220000000000"/&gt;
     &lt;code value="220000000001"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1362,7 +1362,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://spor.ema.europa.eu/rmswi/220000000000"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/lists/220000000000"/&gt;
     &lt;code value="220000000002"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1397,7 +1397,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://spor.ema.europa.eu/rmswi/220000000000"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/lists/220000000000"/&gt;
     &lt;code value="220000000003"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1432,7 +1432,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://spor.ema.europa.eu/rmswi/220000000000"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/lists/220000000000"/&gt;
     &lt;code value="220000000004"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1467,7 +1467,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://spor.ema.europa.eu/rmswi/220000000000"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/lists/220000000000"/&gt;
     &lt;code value="220000000005"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
